--- a/Results/ROC_Curves_Results/ROCCurve_Predus_.01.xlsx
+++ b/Results/ROC_Curves_Results/ROCCurve_Predus_.01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evanedelstein/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evanedelstein/Desktop/Research_Evan/Raji_Summer2019_atom/Results/ROC_Curves_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{679DD16C-62FB-2845-ADE9-04DF500FE84E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D1F37D-6CC6-864D-B7B5-72FD4D5C6A20}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updatedROC_AUC.thresholds.table" sheetId="1" r:id="rId1"/>
@@ -613,10 +613,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -644,10 +645,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -682,47 +684,32 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="3"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
               </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="25400" cap="rnd">
+              <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:alpha val="50000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -751,8 +738,9 @@
                   <a:pPr>
                     <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="75000"/>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
                         </a:schemeClr>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
@@ -1418,10 +1406,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                  <a:alpha val="75000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1436,10 +1423,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="75000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1467,10 +1455,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1489,7 +1478,12 @@
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:round/>
           </a:ln>
           <a:effectLst/>
@@ -1501,8 +1495,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1528,10 +1523,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                  <a:alpha val="75000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1546,10 +1540,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="75000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1583,10 +1578,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1606,8 +1602,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="50000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1621,8 +1618,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1658,14 +1656,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1733,46 +1728,56 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1780,15 +1785,16 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1798,18 +1804,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1817,123 +1828,63 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1957,18 +1908,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1978,19 +1932,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2002,13 +1957,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2020,13 +1976,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2038,8 +1995,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -2051,10 +2014,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-            <a:alpha val="75000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2071,10 +2033,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-            <a:alpha val="25000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2086,13 +2047,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2104,13 +2066,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2122,26 +2085,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2149,8 +2113,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2160,13 +2125,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2178,11 +2144,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2191,15 +2158,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="25400" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2208,8 +2174,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2219,18 +2186,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2242,30 +2208,37 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2274,16 +2247,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2611,7 +2584,7 @@
   <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
